--- a/typecheck/benchmark/incremental_16/Abs{x,Tree{Add,[x1..xn]}}.BottomUpIncrementalSolve.Test-1.xlsx
+++ b/typecheck/benchmark/incremental_16/Abs{x,Tree{Add,[x1..xn]}}.BottomUpIncrementalSolve.Test-1.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Abs{x,Tree{Add,(x1..xn)}}.Botto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -450,7 +450,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E11" sqref="E1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -502,8 +502,8 @@
         <v>41.2424999999999</v>
       </c>
       <c r="E2">
-        <f>C2/D2</f>
-        <v>7.2740498272413343E-2</v>
+        <f>C$9/D2</f>
+        <v>1589.0161847608695</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -536,8 +536,8 @@
         <v>40.190111111111101</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">C3/D3</f>
-        <v>0.3732261390999998</v>
+        <f t="shared" ref="E3:E9" si="1">C$9/D3</f>
+        <v>1630.6250017278992</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -571,7 +571,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>1.5084400814078773</v>
+        <v>1569.1368370645278</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -605,7 +605,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>6.149311719194837</v>
+        <v>1580.3731118330729</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -639,7 +639,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>24.084724236839694</v>
+        <v>1542.9055746444665</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -673,7 +673,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>70.143317519128615</v>
+        <v>1122.5500155350655</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -707,7 +707,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>143.11654383743215</v>
+        <v>572.49238237112354</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -762,7 +762,7 @@
     <row r="11" spans="1:10">
       <c r="E11">
         <f>SUM(E2:E8)/COUNTA(E2:E8)</f>
-        <v>35.064043433053655</v>
+        <v>1372.4427297052894</v>
       </c>
     </row>
   </sheetData>
